--- a/medicine/Enfance/Collection_Plein_Vent/Collection_Plein_Vent.xlsx
+++ b/medicine/Enfance/Collection_Plein_Vent/Collection_Plein_Vent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Plein Vent est une collection française de romans pour adolescents, parue de 1966 à 1982 chez Robert Laffont.
 </t>
@@ -511,12 +523,14 @@
           <t>Genèse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lancée en avril 1966 par les éditions Robert Laffont, la collection Plein Vent est dirigée par André Massepain, écrivain sous le nom d'André Kédros[1]. Il avait proposé à l'éditeur un programme de plus de quatre-vingt titres[2]. 
-Destinée aux adolescents de douze à seize ans[1], la collection est principalement composée de romans d'aventures, de voyages, d'histoire ou de découvertes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lancée en avril 1966 par les éditions Robert Laffont, la collection Plein Vent est dirigée par André Massepain, écrivain sous le nom d'André Kédros. Il avait proposé à l'éditeur un programme de plus de quatre-vingt titres. 
+Destinée aux adolescents de douze à seize ans, la collection est principalement composée de romans d'aventures, de voyages, d'histoire ou de découvertes.
 Il y aura une sous-collection intitulée « Plein Vent Documents ».
-« C'est la meilleure collection pour adolescents de la décennie, son directeur ayant « conçu une collection de romans d'aventures d'un bon niveau littéraire qui ne soient pas gratuits mais qui s'appuient sur les sciences ou les techniques de notre temps, parlent des problèmes actuels, d'histoire ou d'anticipation »[1]. »
+« C'est la meilleure collection pour adolescents de la décennie, son directeur ayant « conçu une collection de romans d'aventures d'un bon niveau littéraire qui ne soient pas gratuits mais qui s'appuient sur les sciences ou les techniques de notre temps, parlent des problèmes actuels, d'histoire ou d'anticipation ». »
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Liste des titres parus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(liste exhaustive établie selon le numéro indiqué au dos du livre)
  Anthony Fon Eisen, Le Prince d’Omeya, 1964
@@ -568,7 +584,7 @@
  Alfred Lansing, Les Rescapés de l'"Endurance" (Shackleton's valiant voyage), 1966
  Karl Bruckner, Les deux robots (Nur zwei Roboter ?), 1967
  Willard Price, Pièges dans la mer australe (Whale adventure), 1968 (n°20)
- Jean Coué, Kopoli, le renne guide  (Prix de l'Académie française[3]), 1967 (n°21)
+ Jean Coué, Kopoli, le renne guide  (Prix de l'Académie française), 1967 (n°21)
  Yannis Katsoufris, Le Capetan Mavros, 1967
  Jean Séverin, Le Soleil d'Olympie, 1967 (Grand Prix des 13)
  André Massepain, L'Île aux fossiles vivants, 1967
@@ -578,7 +594,7 @@
  Jean-Jacques Antier, Mission dangereuse, 1967 (Prix La Joie par les livres 1968)
  Michel Peyramaure, Les Colosses de Carthage, 1967
  Jerry Sohl, L'Invention du professeur Costigan (Costigan's needle), 1967
- Bernard Clavel, Victoire au Mans (Prix Jean Macé 1968[4])
+ Bernard Clavel, Victoire au Mans (Prix Jean Macé 1968)
  Gerhart Ellert, Alexandre le Grand (Alexander der grosse), 1968
  Willard Price, Pièges dans la savane (Safari Adventure), 1968
  Odile Yelnik, "V" comme victoire, 1968
@@ -720,9 +736,11 @@
           <t>Illustrateurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les premières illustrations de couvertures sont dues à Jean-Olivier Héron pendant plusieurs années. D'autres dessinateurs travailleront ensuite pour la collection : Daniel Bechennec, Ardea, Michel Politzer, Michel Landi etIsabelle Molinard[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premières illustrations de couvertures sont dues à Jean-Olivier Héron pendant plusieurs années. D'autres dessinateurs travailleront ensuite pour la collection : Daniel Bechennec, Ardea, Michel Politzer, Michel Landi etIsabelle Molinard.
 </t>
         </is>
       </c>
